--- a/dist/document/dest/2020/10/doctors/101.xlsx
+++ b/dist/document/dest/2020/10/doctors/101.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>462</v>
       </c>
-      <c r="C2" s="1">
-        <v>2390850</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>72</v>
       </c>
-      <c r="C3" s="1">
-        <v>163440</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>92</v>
       </c>
-      <c r="C4" s="1">
-        <v>211600</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>56</v>
       </c>
-      <c r="C5" s="1">
-        <v>708400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1441</v>
       </c>
-      <c r="C6" s="1">
-        <v>8285750</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1002</v>
       </c>
-      <c r="C7" s="1">
-        <v>8266500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>474</v>
       </c>
-      <c r="C8" s="1">
-        <v>114708</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>639</v>
       </c>
-      <c r="C9" s="1">
-        <v>7310160</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>2553</v>
       </c>
-      <c r="C10" s="1">
-        <v>19096440</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>289</v>
       </c>
-      <c r="C11" s="1">
-        <v>2225300</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>674</v>
       </c>
-      <c r="C12" s="1">
-        <v>3565460</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>686</v>
       </c>
-      <c r="C13" s="1">
-        <v>5282200</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>4640</v>
       </c>
-      <c r="C14" s="1">
-        <v>15196000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>60</v>
       </c>
-      <c r="C15" s="1">
-        <v>415800</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>176</v>
       </c>
-      <c r="C16" s="1">
-        <v>704000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>56</v>
       </c>
-      <c r="C17" s="1">
-        <v>366800</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>902</v>
       </c>
-      <c r="C18" s="1">
-        <v>6746960</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1636</v>
       </c>
-      <c r="C19" s="1">
-        <v>13497000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>218</v>
       </c>
-      <c r="C20" s="1">
-        <v>814230</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1415</v>
       </c>
-      <c r="C21" s="1">
-        <v>3091775</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="C22" s="1">
-        <v>71500</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>160</v>
       </c>
-      <c r="C23" s="1">
-        <v>412800</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>876</v>
       </c>
-      <c r="C24" s="1">
-        <v>12285900</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="1">
-        <v>5460</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>412</v>
       </c>
-      <c r="C26" s="1">
-        <v>1042360</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>90</v>
       </c>
-      <c r="C27" s="1">
-        <v>517500</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>343</v>
       </c>
-      <c r="C28" s="1">
-        <v>5848150</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>544</v>
       </c>
-      <c r="C29" s="1">
-        <v>5385600</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>14</v>
       </c>
-      <c r="C30" s="1">
-        <v>89320</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>42</v>
       </c>
-      <c r="C31" s="1">
-        <v>42840</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>460</v>
       </c>
-      <c r="C32" s="1">
-        <v>1453600</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>2649</v>
       </c>
-      <c r="C33" s="1">
-        <v>28556220</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>603</v>
       </c>
-      <c r="C34" s="1">
-        <v>4112460</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>400</v>
       </c>
-      <c r="C35" s="1">
-        <v>6908000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>376</v>
       </c>
-      <c r="C36" s="1">
-        <v>4549600</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>132</v>
       </c>
-      <c r="C37" s="1">
-        <v>396000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>540</v>
       </c>
-      <c r="C38" s="1">
-        <v>4357800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>432</v>
       </c>
-      <c r="C39" s="1">
-        <v>2827440</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>30</v>
       </c>
-      <c r="C40" s="1">
-        <v>9000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>1216</v>
       </c>
-      <c r="C41" s="1">
-        <v>4055360</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>529</v>
       </c>
-      <c r="C42" s="1">
-        <v>3491400</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>324</v>
       </c>
-      <c r="C43" s="1">
-        <v>5346000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>72</v>
       </c>
-      <c r="C44" s="1">
-        <v>855360</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>129</v>
       </c>
-      <c r="C45" s="1">
-        <v>623070</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>20</v>
       </c>
-      <c r="C46" s="1">
-        <v>97200</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>2837</v>
       </c>
-      <c r="C47" s="1">
-        <v>8482630</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>708</v>
       </c>
-      <c r="C48" s="1">
-        <v>7009200</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>1211</v>
       </c>
-      <c r="C49" s="1">
-        <v>3620890</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>473</v>
       </c>
-      <c r="C50" s="1">
-        <v>1631850</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>30</v>
       </c>
-      <c r="C51" s="1">
-        <v>271350</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>70</v>
       </c>
-      <c r="C52" s="1">
-        <v>322000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>146</v>
       </c>
-      <c r="C53" s="1">
-        <v>835120</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>364</v>
       </c>
-      <c r="C54" s="1">
-        <v>837200</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>1248</v>
       </c>
-      <c r="C55" s="1">
-        <v>5023200</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>14</v>
       </c>
-      <c r="C56" s="1">
-        <v>2016</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>414</v>
       </c>
-      <c r="C57" s="1">
-        <v>1142640</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C58" s="1">
-        <v>535000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>519</v>
       </c>
-      <c r="C59" s="1">
-        <v>1969605</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>60</v>
       </c>
-      <c r="C60" s="1">
-        <v>92400</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>120</v>
       </c>
-      <c r="C61" s="1">
-        <v>699600</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>430</v>
       </c>
-      <c r="C62" s="1">
-        <v>8514000</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>804</v>
       </c>
-      <c r="C63" s="1">
-        <v>2866260</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>412</v>
       </c>
-      <c r="C64" s="1">
-        <v>3988160</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>168</v>
       </c>
-      <c r="C65" s="1">
-        <v>946680</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>576</v>
       </c>
-      <c r="C66" s="1">
-        <v>7603200</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>56</v>
       </c>
-      <c r="C67" s="1">
-        <v>431200</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>421</v>
       </c>
-      <c r="C68" s="1">
-        <v>2016590</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>14</v>
       </c>
-      <c r="C69" s="1">
-        <v>261800</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>172</v>
       </c>
-      <c r="C70" s="1">
-        <v>949440</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>50</v>
       </c>
-      <c r="C71" s="1">
-        <v>270250</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>3275</v>
       </c>
-      <c r="C72" s="1">
-        <v>13181875</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>430</v>
       </c>
-      <c r="C73" s="1">
-        <v>6622000</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>4679</v>
       </c>
-      <c r="C74" s="1">
-        <v>15066380</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>736</v>
       </c>
-      <c r="C75" s="1">
-        <v>2200640</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>63</v>
       </c>
-      <c r="C76" s="1">
-        <v>80010</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>148</v>
       </c>
-      <c r="C77" s="1">
-        <v>822880</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>172</v>
       </c>
-      <c r="C78" s="1">
-        <v>1229800</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>56</v>
       </c>
-      <c r="C79" s="1">
-        <v>708400</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>14</v>
       </c>
-      <c r="C80" s="1">
-        <v>29680</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>58</v>
       </c>
-      <c r="C81" s="1">
-        <v>82940</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>28</v>
       </c>
-      <c r="C82" s="1">
-        <v>175560</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>850</v>
       </c>
-      <c r="C83" s="1">
-        <v>1810500</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>60</v>
       </c>
-      <c r="C84" s="1">
-        <v>39300</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>28</v>
       </c>
-      <c r="C85" s="1">
-        <v>70840</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>651</v>
       </c>
-      <c r="C86" s="1">
-        <v>8235150</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>868</v>
       </c>
-      <c r="C87" s="1">
-        <v>5728800</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>28</v>
       </c>
-      <c r="C88" s="1">
-        <v>128800</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>121</v>
       </c>
-      <c r="C89" s="1">
-        <v>1264450</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>196</v>
       </c>
-      <c r="C90" s="1">
-        <v>1649340</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>478</v>
       </c>
-      <c r="C91" s="1">
-        <v>5205420</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>3</v>
       </c>
-      <c r="C92" s="1">
-        <v>273300</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>2519</v>
       </c>
-      <c r="C93" s="1">
-        <v>24383920</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>168</v>
       </c>
-      <c r="C94" s="1">
-        <v>540960</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>140</v>
       </c>
-      <c r="C95" s="1">
-        <v>140000</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>34</v>
       </c>
-      <c r="C96" s="1">
-        <v>136850</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>74</v>
       </c>
-      <c r="C97" s="1">
-        <v>854700</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>7</v>
       </c>
-      <c r="C98" s="1">
-        <v>3185</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>2020</v>
       </c>
-      <c r="C99" s="1">
-        <v>29997000</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>112</v>
       </c>
-      <c r="C100" s="1">
-        <v>437920</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>3631</v>
       </c>
-      <c r="C101" s="1">
-        <v>14614775</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>201</v>
       </c>
-      <c r="C102" s="1">
-        <v>1437150</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>56</v>
       </c>
-      <c r="C103" s="1">
-        <v>431200</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>30</v>
       </c>
-      <c r="C104" s="1">
-        <v>36150</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>842</v>
       </c>
-      <c r="C105" s="1">
-        <v>2420750</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>5863</v>
       </c>
-      <c r="C106" s="1">
-        <v>54174120</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>138</v>
       </c>
-      <c r="C107" s="1">
-        <v>2277000</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>460</v>
       </c>
-      <c r="C108" s="1">
-        <v>4048000</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>120</v>
       </c>
-      <c r="C109" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>348</v>
       </c>
-      <c r="C110" s="1">
-        <v>1600800</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>28</v>
       </c>
-      <c r="C111" s="1">
-        <v>261800</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>2105</v>
       </c>
-      <c r="C112" s="1">
-        <v>11377525</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>290</v>
       </c>
-      <c r="C113" s="1">
-        <v>4785000</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>130</v>
       </c>
-      <c r="C114" s="1">
-        <v>1144000</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1647,9 +1308,6 @@
       <c r="B115" s="1">
         <v>315</v>
       </c>
-      <c r="C115" s="1">
-        <v>4504500</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1658,9 +1316,6 @@
       <c r="B116" s="1">
         <v>84</v>
       </c>
-      <c r="C116" s="1">
-        <v>260820</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1669,9 +1324,6 @@
       <c r="B117" s="1">
         <v>144</v>
       </c>
-      <c r="C117" s="1">
-        <v>579600</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1680,9 +1332,6 @@
       <c r="B118" s="1">
         <v>6</v>
       </c>
-      <c r="C118" s="1">
-        <v>564000</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1691,9 +1340,6 @@
       <c r="B119" s="1">
         <v>340</v>
       </c>
-      <c r="C119" s="1">
-        <v>289000</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -1702,9 +1348,6 @@
       <c r="B120" s="1">
         <v>710</v>
       </c>
-      <c r="C120" s="1">
-        <v>14058000</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -1713,9 +1356,6 @@
       <c r="B121" s="1">
         <v>30</v>
       </c>
-      <c r="C121" s="1">
-        <v>326700</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -1724,9 +1364,6 @@
       <c r="B122" s="1">
         <v>607</v>
       </c>
-      <c r="C122" s="1">
-        <v>418830</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -1735,9 +1372,6 @@
       <c r="B123" s="1">
         <v>568</v>
       </c>
-      <c r="C123" s="1">
-        <v>2286200</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -1746,9 +1380,6 @@
       <c r="B124" s="1">
         <v>1331</v>
       </c>
-      <c r="C124" s="1">
-        <v>5510340</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1757,9 +1388,6 @@
       <c r="B125" s="1">
         <v>462</v>
       </c>
-      <c r="C125" s="1">
-        <v>2767380</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -1768,9 +1396,6 @@
       <c r="B126" s="1">
         <v>650</v>
       </c>
-      <c r="C126" s="1">
-        <v>5577000</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -1779,9 +1404,6 @@
       <c r="B127" s="1">
         <v>230</v>
       </c>
-      <c r="C127" s="1">
-        <v>2040100</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -1790,9 +1412,6 @@
       <c r="B128" s="1">
         <v>1114</v>
       </c>
-      <c r="C128" s="1">
-        <v>2177870</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -1801,9 +1420,6 @@
       <c r="B129" s="1">
         <v>230</v>
       </c>
-      <c r="C129" s="1">
-        <v>555450</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -1812,9 +1428,6 @@
       <c r="B130" s="1">
         <v>110</v>
       </c>
-      <c r="C130" s="1">
-        <v>968000</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -1823,9 +1436,6 @@
       <c r="B131" s="1">
         <v>3448</v>
       </c>
-      <c r="C131" s="1">
-        <v>9913000</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -1834,9 +1444,6 @@
       <c r="B132" s="1">
         <v>545</v>
       </c>
-      <c r="C132" s="1">
-        <v>9831800</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -1845,9 +1452,6 @@
       <c r="B133" s="1">
         <v>562</v>
       </c>
-      <c r="C133" s="1">
-        <v>10509400</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -1856,9 +1460,6 @@
       <c r="B134" s="1">
         <v>265</v>
       </c>
-      <c r="C134" s="1">
-        <v>2582690</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -1867,9 +1468,6 @@
       <c r="B135" s="1">
         <v>6</v>
       </c>
-      <c r="C135" s="1">
-        <v>45690</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -1878,9 +1476,6 @@
       <c r="B136" s="1">
         <v>126</v>
       </c>
-      <c r="C136" s="1">
-        <v>666540</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -1889,9 +1484,6 @@
       <c r="B137" s="1">
         <v>258</v>
       </c>
-      <c r="C137" s="1">
-        <v>7095000</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -1901,7 +1493,7 @@
         <v>83674</v>
       </c>
       <c r="C138" s="1">
-        <v>556210374</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/101.xlsx
+++ b/dist/document/dest/2020/10/doctors/101.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,95 +402,131 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>462</v>
+        <v>288</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1490400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Aldactone (Spironolactone) 25mg</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Aldactone (Spironolactone) 25mg</v>
       </c>
       <c r="B4" s="1">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>158900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amisate (Donepezil 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>56</v>
+        <v>1240</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7130000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>1441</v>
+        <v>387</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3192750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Artan 2mg(Trihexyphenidyl)</v>
       </c>
       <c r="B7" s="1">
-        <v>1002</v>
+        <v>322</v>
+      </c>
+      <c r="C7" s="1">
+        <v>77924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Artan 2mg(Trihexyphenidyl)</v>
+        <v>Asentra (Sertraline 50mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>474</v>
+        <v>400</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4576000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Asentra (Sertraline 50mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B9" s="1">
-        <v>639</v>
+        <v>1599</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11960520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>2553</v>
+        <v>170</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1309000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B11" s="1">
-        <v>289</v>
+        <v>182</v>
+      </c>
+      <c r="C11" s="1">
+        <v>962780</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B12" s="1">
-        <v>674</v>
+        <v>308</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2371600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>686</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>275100</v>
       </c>
     </row>
     <row r="14">
@@ -498,55 +534,76 @@
         <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>4640</v>
+        <v>3520</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11528000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Betaserc 16mg (Betahistine dihydrochloride)</v>
       </c>
       <c r="B15" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>720000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Betaserc 16mg (Betahistine dihydrochloride)</v>
+        <v>Betaserc 24mg (Betahistine dihydrochloride)</v>
       </c>
       <c r="B16" s="1">
-        <v>176</v>
+        <v>84</v>
+      </c>
+      <c r="C16" s="1">
+        <v>550200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Betaserc 24mg (Betahistine dihydrochloride)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>56</v>
+        <v>734</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5490320</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>902</v>
+        <v>759</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6261750</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>1636</v>
+        <v>239</v>
+      </c>
+      <c r="C19" s="1">
+        <v>892665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B20" s="1">
-        <v>218</v>
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
+        <v>524700</v>
       </c>
     </row>
     <row r="21">
@@ -554,951 +611,1104 @@
         <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>1415</v>
+        <v>815</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1780775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>10</v>
+        <v>252</v>
+      </c>
+      <c r="C22" s="1">
+        <v>650160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>160</v>
+        <v>650</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9116250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>876</v>
+        <v>356</v>
+      </c>
+      <c r="C24" s="1">
+        <v>900680</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Captopril 25</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B25" s="1">
-        <v>10</v>
+        <v>116</v>
+      </c>
+      <c r="C25" s="1">
+        <v>667000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Carvedol (Carvedilol 6.25mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>412</v>
+        <v>104</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1773200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>90</v>
+        <v>156</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1544400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B28" s="1">
-        <v>343</v>
+        <v>316</v>
+      </c>
+      <c r="C28" s="1">
+        <v>998560</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
       </c>
       <c r="B29" s="1">
-        <v>544</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="1">
+        <v>603680</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Cenoxib (Celecoxib 200mg)</v>
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
       </c>
       <c r="B30" s="1">
-        <v>14</v>
+        <v>1820</v>
+      </c>
+      <c r="C30" s="1">
+        <v>19619600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Chophytol (Artichaut 200mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>42</v>
+        <v>146</v>
+      </c>
+      <c r="C31" s="1">
+        <v>995720</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Cigenol</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>460</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>241780</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>2649</v>
+        <v>391</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6752570</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>603</v>
+        <v>126</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1524600</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Depakine Chrono 500mg (Natri valproat)</v>
       </c>
       <c r="B35" s="1">
-        <v>400</v>
+        <v>270</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2178900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>376</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>366520</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Depakine 200mg (Natri valproat)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>132</v>
+        <v>504</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1680840</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Depakine Chrono 500mg (Natri valproat)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>540</v>
+        <v>404</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2666400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>432</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="C40" s="1">
+        <v>831600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Europlin (Amitriptyline 25mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>1216</v>
+        <v>143</v>
+      </c>
+      <c r="C41" s="1">
+        <v>690690</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>529</v>
+        <v>1237</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3698630</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>324</v>
+        <v>345</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3415500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>72</v>
+        <v>532</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1590680</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Europlin (Amitriptyline 25mg)</v>
+        <v>Gabena (Olanzapine 10mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>129</v>
+        <v>256</v>
+      </c>
+      <c r="C45" s="1">
+        <v>883200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Exomuc (Acetylcysteine 200mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>20</v>
+        <v>172</v>
+      </c>
+      <c r="C46" s="1">
+        <v>791200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Gimyenez (Betahistin 16mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>2837</v>
+        <v>88</v>
+      </c>
+      <c r="C47" s="1">
+        <v>202400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Gujujnam (Piracetam 800mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>708</v>
+        <v>568</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2286200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B49" s="1">
-        <v>1211</v>
+        <v>126</v>
+      </c>
+      <c r="C49" s="1">
+        <v>347760</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B50" s="1">
-        <v>473</v>
+        <v>236</v>
+      </c>
+      <c r="C50" s="1">
+        <v>895620</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Galvus 50mg (Vildagliptin)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>30</v>
+        <v>224</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4435200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B52" s="1">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="C52" s="1">
+        <v>199640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B53" s="1">
-        <v>146</v>
+        <v>362</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1290530</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Gimyenez (Betahistin 16mg)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B54" s="1">
-        <v>364</v>
+        <v>196</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1897280</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Lactomin Plus (Probiotics)</v>
       </c>
       <c r="B55" s="1">
-        <v>1248</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="1">
+        <v>619850</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Halofar (Haloperidol) 2mg</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>14</v>
+        <v>189</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2494800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Hancetax (Mecobalamin 500mcg)</v>
+        <v>Legalon (Silymarin 140mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>414</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+        <v>Legalon (Silymarin 140mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C58" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B59" s="1">
-        <v>519</v>
+        <v>42</v>
+      </c>
+      <c r="C59" s="1">
+        <v>201180</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B60" s="1">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>905520</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Mageum (Magnesium Valproate 200mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>120</v>
+        <v>4071</v>
+      </c>
+      <c r="C61" s="1">
+        <v>16385775</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>430</v>
+        <v>145</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2233000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>804</v>
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45080</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>412</v>
+        <v>2267</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7299740</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>168</v>
+        <v>56</v>
+      </c>
+      <c r="C65" s="1">
+        <v>180320</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>576</v>
+        <v>308</v>
+      </c>
+      <c r="C66" s="1">
+        <v>920920</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B67" s="1">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="1">
+        <v>127200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Leolen Forte (CMP, UTP)</v>
+        <v>Mimosa</v>
       </c>
       <c r="B68" s="1">
-        <v>421</v>
+        <v>90</v>
+      </c>
+      <c r="C68" s="1">
+        <v>128700</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Myomethol (Methocarbamol 500mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>14</v>
+        <v>336</v>
+      </c>
+      <c r="C69" s="1">
+        <v>715680</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Nilkey (Fluoxetin 20mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>172</v>
+        <v>116</v>
+      </c>
+      <c r="C70" s="1">
+        <v>293480</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>50</v>
+        <v>311</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3934150</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mageum (Magnesium Valproate 200mg)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>3275</v>
+        <v>746</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4923600</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Nykob (Olanzapin 10mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>430</v>
+        <v>57</v>
+      </c>
+      <c r="C73" s="1">
+        <v>595650</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Opecerin (Diacerein 50mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>4679</v>
+        <v>112</v>
+      </c>
+      <c r="C74" s="1">
+        <v>942480</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>736</v>
+        <v>316</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3441240</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Originko (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="C76" s="1">
+        <v>271040</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mestinon (Pyridostigmine 60mg)</v>
+        <v>Originko (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>148</v>
+        <v>1128</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10919040</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Osart (Olmesartan 20mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="C78" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Oxabiti (Mecobalamine 500mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>56</v>
+        <v>354</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1139880</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B80" s="1">
-        <v>14</v>
+        <v>124</v>
+      </c>
+      <c r="C80" s="1">
+        <v>124000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mimosa</v>
+        <v>Philiver (Carduus, vitamin..)</v>
       </c>
       <c r="B81" s="1">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="C81" s="1">
+        <v>450800</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mirastad (Mirtazapine 30mg)</v>
+        <v>Prepentin (Pregabalin 75mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>28</v>
+        <v>518</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7692300</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Myomethol (Methocarbamol 500mg)</v>
+        <v>Proginale (L-Cystine 500mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>850</v>
+        <v>84</v>
+      </c>
+      <c r="C83" s="1">
+        <v>328440</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Nifedipin 20</v>
+        <v>Rabaris (Rabeprazole 20mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>60</v>
+        <v>187</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1337050</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Nilkey (Fluoxetin 20mg)</v>
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
       </c>
       <c r="B85" s="1">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C85" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Reinal (Flunarizil 10mg)</v>
       </c>
       <c r="B86" s="1">
-        <v>651</v>
+        <v>298</v>
+      </c>
+      <c r="C86" s="1">
+        <v>856750</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>868</v>
+        <v>14</v>
+      </c>
+      <c r="C87" s="1">
+        <v>129360</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>28</v>
+        <v>1890</v>
+      </c>
+      <c r="C88" s="1">
+        <v>17463600</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Nykob (Olanzapin 10mg)</v>
+        <v>Reprat (Pantoprazole 40mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>121</v>
+        <v>28</v>
+      </c>
+      <c r="C89" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>196</v>
+        <v>172</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1513600</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>478</v>
+        <v>60</v>
+      </c>
+      <c r="C91" s="1">
+        <v>429000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+        <v>S-cort (Rabamipide 100mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="C92" s="1">
+        <v>644000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>2519</v>
+        <v>1451</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7842655</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Sodinir (Cefdinir 300mg)</v>
       </c>
       <c r="B94" s="1">
-        <v>168</v>
+        <v>308</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5082000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Somexwell (Esomeprazole 20mg</v>
       </c>
       <c r="B95" s="1">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="C95" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Sotig (Esomeprazole 40mg)</v>
       </c>
       <c r="B96" s="1">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="C96" s="1">
+        <v>100100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Sotig (Esomeprazole 40mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>74</v>
+        <v>190</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2717000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Stresam (Etifoxine hydrochloride)</v>
       </c>
       <c r="B98" s="1">
-        <v>7</v>
+        <v>301</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1211525</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Stugeron (Cinnarizine 25mg)</v>
       </c>
       <c r="B99" s="1">
-        <v>2020</v>
+        <v>350</v>
+      </c>
+      <c r="C99" s="1">
+        <v>297500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Proginale (L-Cystine 500mg)</v>
+        <v>SunnyRoitin (Citicoline 500mg)</v>
       </c>
       <c r="B100" s="1">
-        <v>112</v>
+        <v>639</v>
+      </c>
+      <c r="C100" s="1">
+        <v>12652200</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Promag (Magnesium Valproate 200mg)</v>
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
       </c>
       <c r="B101" s="1">
-        <v>3631</v>
+        <v>336</v>
+      </c>
+      <c r="C101" s="1">
+        <v>231840</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Targinos (Arginine 400mg)</v>
       </c>
       <c r="B102" s="1">
-        <v>201</v>
+        <v>14</v>
+      </c>
+      <c r="C102" s="1">
+        <v>56350</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Targinos (Arginine 400mg)</v>
       </c>
       <c r="B103" s="1">
-        <v>56</v>
+        <v>264</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1062600</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Tegretol 200(Carbamazepine)</v>
       </c>
       <c r="B104" s="1">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="C104" s="1">
+        <v>320400</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Reinal (Flunarizil 10mg)</v>
+        <v>Timiroitin</v>
       </c>
       <c r="B105" s="1">
-        <v>842</v>
+        <v>1262</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5224680</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Topamax 25  (Topiramate)</v>
       </c>
       <c r="B106" s="1">
-        <v>5863</v>
+        <v>208</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1245920</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Reprat (Pantoprazole 40mg)</v>
+        <v>Torleva (Levetiracetam 250mg)</v>
       </c>
       <c r="B107" s="1">
-        <v>138</v>
+        <v>206</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1767480</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Toropi (Lercanidipine 10mg)</v>
       </c>
       <c r="B108" s="1">
-        <v>460</v>
+        <v>42</v>
+      </c>
+      <c r="C108" s="1">
+        <v>360360</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Trileptal 300mg (Oxcarbazepin)</v>
       </c>
       <c r="B109" s="1">
-        <v>120</v>
+        <v>180</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1596600</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Trisova (Trimetazidine 20mg)</v>
       </c>
       <c r="B110" s="1">
-        <v>348</v>
+        <v>690</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1348950</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Sedanxio (Lạc tiên)</v>
+        <v>Tyrozet (Metformin 850mg)</v>
       </c>
       <c r="B111" s="1">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="C111" s="1">
+        <v>338100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Verist (Betahistine 16mg)</v>
       </c>
       <c r="B112" s="1">
-        <v>2105</v>
+        <v>1555</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4470625</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Vexinir (Cefdinir 300mg)</v>
       </c>
       <c r="B113" s="1">
-        <v>290</v>
+        <v>228</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4113120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Vinaflam (Cefuroxime 500mg)</v>
       </c>
       <c r="B114" s="1">
-        <v>130</v>
+        <v>14</v>
+      </c>
+      <c r="C114" s="1">
+        <v>261800</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Vinaflam (Cefuroxime 500mg)</v>
       </c>
       <c r="B115" s="1">
-        <v>315</v>
+        <v>364</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6806800</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Vocfor (Lornoxicam 4mg)</v>
       </c>
       <c r="B116" s="1">
-        <v>84</v>
+        <v>201</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1958946</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Stresam (Etifoxine hydrochloride)</v>
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
       </c>
       <c r="B117" s="1">
-        <v>144</v>
+        <v>56</v>
+      </c>
+      <c r="C117" s="1">
+        <v>296240</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Stromectin (Ivermectin 6mg)</v>
+        <v>Zentel (albendazole)</v>
       </c>
       <c r="B118" s="1">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>12300</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Stugeron (Cinnarizine 25mg)</v>
+        <v>Zinecox (Cefditoren 200mg)</v>
       </c>
       <c r="B119" s="1">
-        <v>340</v>
+        <v>172</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4730000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B120" s="1">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
-      </c>
-      <c r="B121" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
-      </c>
-      <c r="B122" s="1">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Targinos (Arginine 400mg)</v>
-      </c>
-      <c r="B123" s="1">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Timiroitin</v>
-      </c>
-      <c r="B124" s="1">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Topamax 25  (Topiramate)</v>
-      </c>
-      <c r="B125" s="1">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Torleva (Levetiracetam 250mg)</v>
-      </c>
-      <c r="B126" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Trileptal 300mg (Oxcarbazepin)</v>
-      </c>
-      <c r="B127" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
-      </c>
-      <c r="B128" s="1">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
-      </c>
-      <c r="B129" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
-      </c>
-      <c r="B130" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>Verist (Betahistine 16mg)</v>
-      </c>
-      <c r="B131" s="1">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
-      </c>
-      <c r="B132" s="1">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
-      </c>
-      <c r="B133" s="1">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
-      </c>
-      <c r="B134" s="1">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
-      </c>
-      <c r="B135" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
-      </c>
-      <c r="B136" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>Zinecox (Cefditoren 200mg)</v>
-      </c>
-      <c r="B137" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B138" s="1">
-        <v>83674</v>
-      </c>
-      <c r="C138" s="1">
-        <v>NaN</v>
+        <v>45917</v>
+      </c>
+      <c r="C120" s="1">
+        <v>294849490</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C138"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C120"/>
   </ignoredErrors>
 </worksheet>
 </file>